--- a/biology/Botanique/Superrosidae/Superrosidae.xlsx
+++ b/biology/Botanique/Superrosidae/Superrosidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Superrosidées
-Les Superrosidées (Superrosidae, en anglais : superrosids) sont un clade important de plantes à fleurs, regroupant plus de 88 000 espèces[1], et donc plus d'un quart de tous les angiospermes[2], réparties en environ 155 familles dans 18 ordres selon la classification phylogénétique APG IV (2016)[3]. Le nom Superrosidae est basé sur celui de la sous-classe des Rosidae (comprise ici comme le clade des Rosidées). 
+Les Superrosidées (Superrosidae, en anglais : superrosids) sont un clade important de plantes à fleurs, regroupant plus de 88 000 espèces, et donc plus d'un quart de tous les angiospermes, réparties en environ 155 familles dans 18 ordres selon la classification phylogénétique APG IV (2016). Le nom Superrosidae est basé sur celui de la sous-classe des Rosidae (comprise ici comme le clade des Rosidées). 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce clade a été introduit par la classification phylogénétique APG IV (2016)[3] sous le nom informel anglais de superrosids. Le nom scientifique Superrosidae a été publié en 2011 par les botanistes américains Walter Stephen Judd (en), Douglas E. Soltis (en) et Pamela S. Soltis (en)[4].
-Les Rosidées et les Saxifragales forment le clade des Superrosidae[5]. C'est l'un des trois groupes qui composent les Pentapetalae (noyau des dicotylédones vraies sauf les Gunnerales)[6], les autres étant les Dilleniales et les Superasteridae (Berberidopsidales, Caryophyllales, Santalales et Astéridées)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce clade a été introduit par la classification phylogénétique APG IV (2016) sous le nom informel anglais de superrosids. Le nom scientifique Superrosidae a été publié en 2011 par les botanistes américains Walter Stephen Judd (en), Douglas E. Soltis (en) et Pamela S. Soltis (en).
+Les Rosidées et les Saxifragales forment le clade des Superrosidae. C'est l'un des trois groupes qui composent les Pentapetalae (noyau des dicotylédones vraies sauf les Gunnerales), les autres étant les Dilleniales et les Superasteridae (Berberidopsidales, Caryophyllales, Santalales et Astéridées).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'Angiosperm Phylogeny Website[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'Angiosperm Phylogeny Website :
 </t>
         </is>
       </c>
